--- a/case 1/datatypes excel.xlsx
+++ b/case 1/datatypes excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Given Input</t>
   </si>
@@ -40,10 +40,28 @@
     <t>1 12.6 S ASS</t>
   </si>
   <si>
-    <t>int float char string</t>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>no input in command line</t>
+  </si>
+  <si>
+    <t>no input</t>
+  </si>
+  <si>
+    <t>use argv[0] -h command</t>
+  </si>
+  <si>
+    <t>To check help command</t>
+  </si>
+  <si>
+    <t>argv[0] -h</t>
+  </si>
+  <si>
+    <t>argv[0] datatype1 datatype2…</t>
+  </si>
+  <si>
+    <t>int 4 float 8 char 1 string 3</t>
   </si>
 </sst>
 </file>
@@ -393,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,8 +422,8 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,13 +457,53 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/case 1/datatypes excel.xlsx
+++ b/case 1/datatypes excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Given Input</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>int 4 float 8 char 1 string 3</t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t># @ ass 1.2</t>
+  </si>
+  <si>
+    <t>char 1 char 1 string 3 float 8</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +515,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/case 1/datatypes excel.xlsx
+++ b/case 1/datatypes excel.xlsx
@@ -67,10 +67,10 @@
     <t>special characters</t>
   </si>
   <si>
-    <t># @ ass 1.2</t>
-  </si>
-  <si>
-    <t>char 1 char 1 string 3 float 8</t>
+    <t>$ ass 1.2</t>
+  </si>
+  <si>
+    <t>char 1 string 3 float 8</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
